--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>326_红继木_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051558221566200</v>
+        <v>051558221566201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,12 +524,96 @@
         <v>326_红继木_undefined_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>865_腊梅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051558221566201</v>
+        <v>0515582215662010555551058800</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -610,6 +610,9 @@
       <c r="C21" t="str">
         <v>543_柔丽思红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0515582215662010555551058800</v>
+        <v>0515582215662010555551058801</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,12 +611,96 @@
         <v>543_柔丽思红_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>304_彩星 浅宝蓝_Tinted Gypso light blue_undefined_0.5kg</v>
+      </c>
+      <c r="F22" t="str">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F23" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4</v>
+      </c>
+      <c r="C28" t="str">
+        <v>626_多丁莫言_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0515582215662010555551058801</v>
+        <v>051558221566201055555105880127212666556100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -697,6 +697,9 @@
       <c r="C31" t="str">
         <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -758,7 +761,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051558221566201055555105880127212666556100</v>
+        <v>051558221566201055555105880127212666556108</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-21.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,9 +701,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>846_玛格丽特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>537_天灯_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -761,7 +809,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051558221566201055555105880127212666556108</v>
+        <v>051558221566201055555105880127212666556108855555</v>
       </c>
     </row>
   </sheetData>
